--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>771</v>
+        <v>764.4865192181566</v>
       </c>
       <c r="C2">
-        <v>420</v>
+        <v>418.4496975564101</v>
       </c>
       <c r="D2">
-        <v>329</v>
+        <v>328.1660104757132</v>
       </c>
       <c r="E2">
-        <v>288</v>
+        <v>286.8234418175787</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>878</v>
+        <v>871.0289635510992</v>
       </c>
       <c r="C3">
-        <v>487</v>
+        <v>484.8770979451076</v>
       </c>
       <c r="D3">
-        <v>383</v>
+        <v>381.9381445283123</v>
       </c>
       <c r="E3">
-        <v>339</v>
+        <v>337.5397207041048</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>864</v>
+        <v>854.9972987449361</v>
       </c>
       <c r="C4">
-        <v>477</v>
+        <v>474.344269817126</v>
       </c>
       <c r="D4">
-        <v>374</v>
+        <v>372.6505164845579</v>
       </c>
       <c r="E4">
-        <v>330</v>
+        <v>329.2111233072053</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>574</v>
+        <v>569.1313722990492</v>
       </c>
       <c r="C5">
-        <v>329</v>
+        <v>327.3027464151228</v>
       </c>
       <c r="D5">
-        <v>255</v>
+        <v>254.1870649260764</v>
       </c>
       <c r="E5">
-        <v>228</v>
+        <v>226.7758417148181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>427</v>
+        <v>424.4418026900111</v>
       </c>
       <c r="C6">
-        <v>269</v>
+        <v>268.1912820599164</v>
       </c>
       <c r="D6">
-        <v>222</v>
+        <v>221.405085883514</v>
       </c>
       <c r="E6">
-        <v>197</v>
+        <v>196.612059074901</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>48.45512858836756</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>29.41818687951267</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>23.80803174869665</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>20.8645862999483</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1700</v>
+        <v>1685.980398600371</v>
       </c>
       <c r="C8">
-        <v>1242</v>
+        <v>1234.037006739788</v>
       </c>
       <c r="D8">
-        <v>1113</v>
+        <v>1108.79858268779</v>
       </c>
       <c r="E8">
-        <v>1080</v>
+        <v>1076.224503246965</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>589</v>
+        <v>584.3834546921156</v>
       </c>
       <c r="C9">
-        <v>377</v>
+        <v>375.1745696129715</v>
       </c>
       <c r="D9">
-        <v>315</v>
+        <v>313.9960287543359</v>
       </c>
       <c r="E9">
-        <v>282</v>
+        <v>281.4538724956348</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>308</v>
+        <v>304.4251458185298</v>
       </c>
       <c r="C10">
-        <v>176</v>
+        <v>174.8934120558239</v>
       </c>
       <c r="D10">
-        <v>140</v>
+        <v>139.4316336290295</v>
       </c>
       <c r="E10">
-        <v>121</v>
+        <v>120.7346305157058</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>55.69333481839088</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>30.38056036881715</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>23.994037210493</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>22.41179303283227</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>117.7167208127806</v>
       </c>
       <c r="C12">
-        <v>76</v>
+        <v>75.71151988413907</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>62.5337325697076</v>
       </c>
       <c r="E12">
-        <v>54</v>
+        <v>53.55384386115228</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>166</v>
+        <v>163.5233485432103</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>95.50545873374287</v>
       </c>
       <c r="D13">
-        <v>78</v>
+        <v>77.76696643377903</v>
       </c>
       <c r="E13">
-        <v>69</v>
+        <v>68.2463713327362</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV.xlsx
@@ -388,10 +388,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>764.4865192181566</v>
+        <v>764.4865192181571</v>
       </c>
       <c r="C2">
-        <v>418.4496975564101</v>
+        <v>418.4496975564105</v>
       </c>
       <c r="D2">
         <v>328.1660104757132</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>871.0289635510992</v>
+        <v>871.0289635510998</v>
       </c>
       <c r="C3">
         <v>484.8770979451076</v>
       </c>
       <c r="D3">
-        <v>381.9381445283123</v>
+        <v>381.9381445283124</v>
       </c>
       <c r="E3">
-        <v>337.5397207041048</v>
+        <v>337.539720704105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>854.9972987449361</v>
+        <v>854.9972987449366</v>
       </c>
       <c r="C4">
-        <v>474.344269817126</v>
+        <v>474.3442698171265</v>
       </c>
       <c r="D4">
-        <v>372.6505164845579</v>
+        <v>372.6505164845577</v>
       </c>
       <c r="E4">
         <v>329.2111233072053</v>
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>569.1313722990492</v>
+        <v>569.1313722990498</v>
       </c>
       <c r="C5">
         <v>327.3027464151228</v>
       </c>
       <c r="D5">
-        <v>254.1870649260764</v>
+        <v>254.1870649260763</v>
       </c>
       <c r="E5">
         <v>226.7758417148181</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>424.4418026900111</v>
+        <v>424.4418026900117</v>
       </c>
       <c r="C6">
         <v>268.1912820599164</v>
       </c>
       <c r="D6">
-        <v>221.405085883514</v>
+        <v>221.4050858835137</v>
       </c>
       <c r="E6">
         <v>196.612059074901</v>
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>48.45512858836756</v>
+        <v>48.45512858836758</v>
       </c>
       <c r="C7">
         <v>29.41818687951267</v>
       </c>
       <c r="D7">
-        <v>23.80803174869665</v>
+        <v>23.80803174869664</v>
       </c>
       <c r="E7">
-        <v>20.8645862999483</v>
+        <v>20.86458629994829</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1685.980398600371</v>
+        <v>1685.980398600369</v>
       </c>
       <c r="C8">
         <v>1234.037006739788</v>
@@ -499,7 +499,7 @@
         <v>1108.79858268779</v>
       </c>
       <c r="E8">
-        <v>1076.224503246965</v>
+        <v>1076.224503246964</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>584.3834546921156</v>
+        <v>584.3834546921158</v>
       </c>
       <c r="C9">
-        <v>375.1745696129715</v>
+        <v>375.1745696129718</v>
       </c>
       <c r="D9">
-        <v>313.9960287543359</v>
+        <v>313.9960287543362</v>
       </c>
       <c r="E9">
         <v>281.4538724956348</v>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>304.4251458185298</v>
+        <v>304.4251458185302</v>
       </c>
       <c r="C10">
-        <v>174.8934120558239</v>
+        <v>174.8934120558238</v>
       </c>
       <c r="D10">
         <v>139.4316336290295</v>
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>55.69333481839088</v>
+        <v>55.69333481839095</v>
       </c>
       <c r="C11">
-        <v>30.38056036881715</v>
+        <v>30.38056036881716</v>
       </c>
       <c r="D11">
-        <v>23.994037210493</v>
+        <v>23.99403721049302</v>
       </c>
       <c r="E11">
-        <v>22.41179303283227</v>
+        <v>22.41179303283225</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>117.7167208127806</v>
+        <v>117.7167208127807</v>
       </c>
       <c r="C12">
-        <v>75.71151988413907</v>
+        <v>75.71151988413908</v>
       </c>
       <c r="D12">
-        <v>62.5337325697076</v>
+        <v>62.53373256970758</v>
       </c>
       <c r="E12">
-        <v>53.55384386115228</v>
+        <v>53.55384386115224</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>163.5233485432103</v>
+        <v>163.5233485432104</v>
       </c>
       <c r="C13">
-        <v>95.50545873374287</v>
+        <v>95.50545873374278</v>
       </c>
       <c r="D13">
-        <v>77.76696643377903</v>
+        <v>77.76696643377902</v>
       </c>
       <c r="E13">
-        <v>68.2463713327362</v>
+        <v>68.24637133273622</v>
       </c>
     </row>
   </sheetData>
